--- a/MMS/Defect Report/CINEMA/CMS/CINEMA_CMS.xlsx
+++ b/MMS/Defect Report/CINEMA/CMS/CINEMA_CMS.xlsx
@@ -21,7 +21,7 @@
     <author>designe102</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,11 +41,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-same bug for Movie Gener(s) </t>
+same bug for Movie Genre(s) </t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Movie Gener(s) and Movie Occupancy(s)</t>
+Movie Genre(s) and Movie Occupancy(s)</t>
         </r>
       </text>
     </comment>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Open Date:</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>MOVIE-language</t>
-  </si>
-  <si>
-    <t>Movie Language:duplicate movie languges are accepting</t>
   </si>
   <si>
     <t>Movie Language: 
@@ -119,12 +116,6 @@
     <t>Movie Language: Deleting a Language name in the list view ,The id of the language is not arranged correctly</t>
   </si>
   <si>
-    <t>1. Go to Movie-language&gt;List View.
-2. Select a language and click on delete and confirm.
-Actual: The id of the language is not ordered or arranged correctly
-Expected: Deleting a language id , the previous id of the language should replece.</t>
-  </si>
-  <si>
     <t>Cinema Movie Languages(s)</t>
   </si>
   <si>
@@ -138,29 +129,7 @@
 Note: In the list view tab "false" text is displayed </t>
   </si>
   <si>
-    <t xml:space="preserve">Cinema Movie Gener(s) </t>
-  </si>
-  <si>
-    <t>List View: all the movie generes displayed for selecting a movie in the list view</t>
-  </si>
-  <si>
-    <t>1. Go to Cinema Movie Genere(s)&gt;List view:
-2. Select a movie and click on search Genre(s).
-Actual: all the movie generes are displayed.
-Expected; It should display only a selected movies 'genre'.</t>
-  </si>
-  <si>
     <t>Movie Schedule</t>
-  </si>
-  <si>
-    <t>List View:the updated "Movie schedule" data is not displayed in the List view tab</t>
-  </si>
-  <si>
-    <t>1. Go to Movie Schedule&gt;New.
-2. Enter the all valid data and click on add button.
-3. Select List view tab.
-Actual: the newly uopdated movie schedule data is not updated.
-Expected: It shoud display the update movie schedule list.</t>
   </si>
   <si>
     <t>Theatres</t>
@@ -175,12 +144,177 @@
 Actual: The modified theatre is deleted from the list.
 Expected: The theatre should not delete and the modified data should update.</t>
   </si>
+  <si>
+    <t>display Type: Mute option should be displayed in the dropdown list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display Type: HTTP Status 500 is displayed , Selecting the display type as the "Select' </t>
+  </si>
+  <si>
+    <t>New: "empty page" is displayed when theatre added</t>
+  </si>
+  <si>
+    <t>Screens</t>
+  </si>
+  <si>
+    <t>List View: The Screens are not adding to the list view</t>
+  </si>
+  <si>
+    <t>Movie: Creates a Duplicate list of movie</t>
+  </si>
+  <si>
+    <t>1. Go to Movie&gt;New.
+2. Add a movie with same details in the list .
+3. Click on add 
+Actual: The movie is created.
+Expected: The same name with the same details movie should not be create .</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Movie(s)</t>
+  </si>
+  <si>
+    <t>1. Go to Movie(s)&gt;List View:
+2. Select a movie in the last one.
+3. Select edit or delete.
+Actual : The popup is displayed in the top of the page.
+Expected: The popup should display selected place only.
+Note: It is difficult to find the popup if it displays the popup top</t>
+  </si>
+  <si>
+    <t>Movie Schedule and Movie Occupancy.</t>
+  </si>
+  <si>
+    <t>Special Group Price:</t>
+  </si>
+  <si>
+    <t>Movie(s):List view: Edit or delete: The popup is displaying only top of the page .</t>
+  </si>
+  <si>
+    <t>Movie Language: duplicate movie languages are accepting</t>
+  </si>
+  <si>
+    <t>1. Go to Movie-language&gt;List View.
+2. Select a language and click on delete and confirm.
+Actual: The id of the language is not ordered or arranged correctly
+Expected: Deleting a language id , the previous id of the language should replace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinema Movie Genre(s) </t>
+  </si>
+  <si>
+    <t>List View: all the movie genres displayed for selecting a movie in the list view</t>
+  </si>
+  <si>
+    <t>1. Go to Cinema Movie Genre(s)&gt;List view:
+2. Select a movie and click on search Genre(s).
+Actual: all the movie genres are displayed.
+Expected; It should display only a selected movies 'genre'.</t>
+  </si>
+  <si>
+    <t>List View: the updated "Movie schedule" data is not displayed in the List view tab</t>
+  </si>
+  <si>
+    <t>1. Go to Movie Schedule&gt;New.
+2. Enter the all valid data and click on add button.
+3. Select List view tab.
+Actual: the newly updated movie schedule data is not updated.
+Expected: It should display the update movie schedule list.</t>
+  </si>
+  <si>
+    <t>1. Go to Theatres&gt;New.
+2. Enter The all the details in the fields.
+3. Click on Add.
+Actual: The empty screen is displayed.
+Expected: It should display a message " Successfully added"</t>
+  </si>
+  <si>
+    <t>Cinema Ad Type</t>
+  </si>
+  <si>
+    <t>1.Go to Cinema Ad Type&gt;New.
+2. Select name and duration.
+3. Click on Display Type .
+Actual : only audio and video options are displayed.
+Expected : it should display audio, video and Mute also</t>
+  </si>
+  <si>
+    <t>1.Go to Cinema Ad Type&gt;New.
+2. Select name and duration.
+3. Click on Display Type and Select as "display"
+4.Click on add 
+Actual: "Http status 500 " message is displayed.
+Expected : It should be show a  validation Please select a display type.</t>
+  </si>
+  <si>
+    <t>New: Screen Cluster: The field should be removed</t>
+  </si>
+  <si>
+    <t>1. Go to Screens&gt;New.
+2. Enter all the valid details and click on add.(
+3. Select list View .
+Actual : the added screen is not displayed in the least view tab.
+Expected: After getting a successfully screens added message, the screen should be displayed in the screens list view.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place Catchment </t>
+  </si>
+  <si>
+    <t>List View: Delete: after deleting the place catchment the delete "confirmation" popup not closed</t>
+  </si>
+  <si>
+    <t>1. Go to Place Catchment&gt;List View.
+2. Select a catchment and select delete.
+Actual: The delete popup still displayed after getting the message "Your data has been deleted"
+Expected: The popup should close, when it gives a message "your data has been deleted".</t>
+  </si>
+  <si>
+    <t>New: Invalid text is displayed in the place catchment(showing ====362===true)</t>
+  </si>
+  <si>
+    <t>New: Start date is accepting the less then release date</t>
+  </si>
+  <si>
+    <t>1. Go to Movie Schedule&gt;New.
+2. Select the theatre and movie.
+3. Select the Start date.
+Actual: The start date is accepting the less then the release date.
+Expected: The start date should not accept the less then release date.
+Note: same defect for movie Occupancy also.</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>CINEMA</t>
+  </si>
+  <si>
+    <t>1.Go to Campaign&gt;Plan&gt;Campaign name.
+2. Add theatre to the campaign. 
+3.  Select the valid slot/time.
+Actual: The screens are not displayed.
+Expected: The screens popup should be display.</t>
+  </si>
+  <si>
+    <t>The Screens are added in the cms</t>
+  </si>
+  <si>
+    <t>Movie Schedule and Movie Occupancy is not displayed in the (Client UI)</t>
+  </si>
+  <si>
+    <t>Cms:Movie schedule and movie occupancy</t>
+  </si>
+  <si>
+    <t>CMS:The validation of the Website in movie page should be removed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,8 +349,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +379,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,17 +415,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -567,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,132 +736,274 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1">
-      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B3" s="3">
         <v>42179</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="204.75">
-      <c r="A6" s="5" t="s">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="141.75">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="204.75">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="204.75">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="189">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="189">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="220.5">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="220.5">
-      <c r="A8" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="141.75">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="141.75">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="189">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="141.75">
-      <c r="A9" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="157.5">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="141.75">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="157.5">
-      <c r="A10" s="5" t="s">
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="173.25">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="31.5">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="189">
-      <c r="A11" s="5" t="s">
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="173.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="15.75"/>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="15.75"/>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.75"/>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="15.75"/>
-    <row r="17" s="5" customFormat="1" ht="15.75"/>
-    <row r="18" s="5" customFormat="1" ht="15.75"/>
-    <row r="19" s="5" customFormat="1" ht="15.75"/>
-    <row r="20" s="5" customFormat="1" ht="15.75"/>
-    <row r="21" s="5" customFormat="1" ht="15.75"/>
-    <row r="22" s="5" customFormat="1" ht="15.75"/>
-    <row r="23" s="5" customFormat="1" ht="15.75"/>
-    <row r="24" s="5" customFormat="1" ht="15.75"/>
-    <row r="25" s="5" customFormat="1" ht="15.75"/>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="189">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="47.25">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="220.5">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="31.5">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="15.75"/>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="15.75"/>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="15.75"/>
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="15.75"/>
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="15.75"/>
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="15.75"/>
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="15.75"/>
+    <row r="30" spans="1:5" s="5" customFormat="1"/>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="15.75">
+      <c r="D31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="126">
+      <c r="A32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="63">
+      <c r="A33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="94.5">
+      <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="15.75"/>
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="15.75"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A1:XFD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
